--- a/attendance tracker/source/Attendance Tracker.xlsx
+++ b/attendance tracker/source/Attendance Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="7740" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Person_Master" sheetId="1" state="visible" r:id="rId1"/>
@@ -28,19 +28,24 @@
     </font>
     <font>
       <name val="Arial"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
-      <b val="1"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="10"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -84,24 +89,24 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -785,7 +790,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jiraiya</t>
+          <t>Jiraiya Ogata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1169,21 +1174,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hiei</t>
+          <t>Orochimaru</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>For follow-up</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1198,7 +1203,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1233,7 +1238,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>238272881</t>
+          <t>1234567800</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,7 +1379,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jiraiya</t>
+          <t>Jiraiya Ogata</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1392,7 +1397,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jiraiya</t>
+          <t>Jiraiya Ogata</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1532,11 +1537,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hiei</t>
+          <t>Hinata Hyuuga</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1544,7 +1549,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Orochimaru</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
         </is>
       </c>
     </row>
@@ -1562,14 +1585,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="14.77734375" customWidth="1" min="1" max="1"/>
     <col width="15.109375" customWidth="1" min="2" max="2"/>
-    <col width="21.44140625" customWidth="1" min="3" max="3"/>
+    <col width="25.21875" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1597,12 +1620,12 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Jeanine Lim</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>clifforddelacruz@gmail.com</t>
+          <t>Madara Uchiha</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>madara@uchiha.com</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1637,12 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Jean Acosta</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>hmdlsiscar_121185@yahoo.com</t>
+          <t>Ippo Makunouchi</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>dempseyroll@hni.com</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1654,12 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Omer Manalo</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>cliffordbdelacruz@yahoo.com</t>
+          <t>Steve Armstrong</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>steve.armstrong@voltesv.com</t>
         </is>
       </c>
     </row>
@@ -1648,16 +1671,22 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Rachel del Rosario</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>clifforddelacruz@gmail.com</t>
+          <t>Kakashi Hatake</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>thesixth@hokage.com</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1670,13 +1699,14 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="18.77734375" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1699,7 +1729,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Karol Jane</t>
+          <t>Robert Akizuki</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1741,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Jamie Robinson</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1753,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Omer Manalo</t>
+          <t>Orihime Inoue</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1765,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Myrna Cabrera</t>
+          <t>Frieren Tribbiani</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1777,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Joan Torres</t>
+          <t>Nico Robyn</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1789,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Lloyd</t>
+          <t>Dai Sawamura</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1801,7 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Yoruichi Shihouin</t>
         </is>
       </c>
     </row>
